--- a/assets/ESP32_Wiring.xlsx
+++ b/assets/ESP32_Wiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ahmoa-my.sharepoint.com/personal/francois_boldoduck_ahmoa_fr/Documents/!!! Robotique !!!/SW_MSE-6/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE9B2DB6-9C74-4C7B-B23B-5DE47A2D1007}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB91A76E-2F36-4F32-AA5E-E721B20DD20F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
+    <workbookView xWindow="28680" yWindow="-2010" windowWidth="16440" windowHeight="28320" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -348,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -357,6 +363,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -384,13 +391,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>211844</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>16932</xdr:rowOff>
+      <xdr:rowOff>48682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>72157</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>33499</xdr:rowOff>
+      <xdr:rowOff>65249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -418,8 +425,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4335111" y="203199"/>
-          <a:ext cx="11002446" cy="6349633"/>
+          <a:off x="4180594" y="239182"/>
+          <a:ext cx="10528313" cy="6493567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,7 +445,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159774</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311919BF-5E55-5D77-1998-865FF80DF3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="57812"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4146175" y="6958854"/>
+          <a:ext cx="6076481" cy="3653116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>740751</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>141719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6523FD9F-4777-CE9D-8CD5-92F48D65C8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10298206" y="7037293"/>
+          <a:ext cx="4315427" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6603</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2AC2A2-B582-64FC-A6A6-10A5D1564EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123264" y="8124264"/>
+          <a:ext cx="3850221" cy="2207559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,16 +882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED68F266-D7F2-40F4-B71A-211722391F5C}">
   <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -757,7 +899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -765,13 +907,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -779,7 +921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -787,7 +929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -795,7 +937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -803,7 +945,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -811,7 +953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -819,7 +961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -827,7 +969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>9</v>
       </c>
@@ -835,7 +977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -843,7 +985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>11</v>
       </c>
@@ -851,13 +993,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -865,13 +1007,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -879,7 +1021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -887,7 +1029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
@@ -895,7 +1037,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
@@ -903,43 +1045,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>24</v>
       </c>
@@ -947,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>25</v>
       </c>
@@ -955,7 +1097,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -963,31 +1105,31 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>35</v>
       </c>
@@ -995,16 +1137,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="D35" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
@@ -1014,8 +1156,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C37" t="s">
@@ -1025,8 +1167,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C38" t="s">
@@ -1034,20 +1176,20 @@
       </c>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C41" t="s">

--- a/assets/ESP32_Wiring.xlsx
+++ b/assets/ESP32_Wiring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ahmoa-my.sharepoint.com/personal/francois_boldoduck_ahmoa_fr/Documents/!!! Robotique !!!/SW_MSE-6/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB91A76E-2F36-4F32-AA5E-E721B20DD20F}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2415FE-468E-4C61-8A18-0DF4DC0A2A8F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2010" windowWidth="16440" windowHeight="28320" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>GPIO1</t>
   </si>
@@ -173,39 +173,6 @@
     <t>Boot</t>
   </si>
   <si>
-    <t>Right Front Motor ENA</t>
-  </si>
-  <si>
-    <t>Left Front Motor ENA</t>
-  </si>
-  <si>
-    <t>Right Front Motor IN2</t>
-  </si>
-  <si>
-    <t>Right Front Motor IN1</t>
-  </si>
-  <si>
-    <t>Left Front Motor IN1</t>
-  </si>
-  <si>
-    <t>Left Rear Motor ENA</t>
-  </si>
-  <si>
-    <t>Left Rear Motor IN2</t>
-  </si>
-  <si>
-    <t>Left Rear Motor IN1</t>
-  </si>
-  <si>
-    <t>Right Rear Motor ENA</t>
-  </si>
-  <si>
-    <t>Right Rear Motor IN1</t>
-  </si>
-  <si>
-    <t>Right Rear Motor IN2</t>
-  </si>
-  <si>
     <t>Reserved SPI Flash</t>
   </si>
   <si>
@@ -222,6 +189,27 @@
   </si>
   <si>
     <t>Input Only</t>
+  </si>
+  <si>
+    <t>Right Motor ENA</t>
+  </si>
+  <si>
+    <t>Right Motor IN1</t>
+  </si>
+  <si>
+    <t>Left Motor IN1</t>
+  </si>
+  <si>
+    <t>Left Motor IN2</t>
+  </si>
+  <si>
+    <t>Servo Motor Direction</t>
+  </si>
+  <si>
+    <t>Right  Motor IN2</t>
+  </si>
+  <si>
+    <t>Left Motor ENA</t>
   </si>
 </sst>
 </file>
@@ -584,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -624,7 +612,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -730,7 +718,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,7 +871,7 @@
   <dimension ref="B2:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,23 +914,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -950,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -958,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -966,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -974,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -982,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
@@ -990,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -1004,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1017,33 +1003,25 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -1072,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1064,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1072,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1080,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -1134,7 +1112,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1142,34 +1120,34 @@
         <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1190,7 +1168,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>

--- a/assets/ESP32_Wiring.xlsx
+++ b/assets/ESP32_Wiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ahmoa-my.sharepoint.com/personal/francois_boldoduck_ahmoa_fr/Documents/!!! Robotique !!!/SW_MSE-6/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2415FE-468E-4C61-8A18-0DF4DC0A2A8F}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{E204F435-9A13-49BB-A2EE-85C1E68357FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96CB1913-D85B-4746-8B0D-E5F16316DCD2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{03262896-5594-4AD1-BF64-377D9006D926}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>GPIO1</t>
   </si>
@@ -176,18 +176,6 @@
     <t>Reserved SPI Flash</t>
   </si>
   <si>
-    <t>US Left Trigger</t>
-  </si>
-  <si>
-    <t>US Right Trigger</t>
-  </si>
-  <si>
-    <t>US Left Echo</t>
-  </si>
-  <si>
-    <t>US Right Echo</t>
-  </si>
-  <si>
     <t>Input Only</t>
   </si>
   <si>
@@ -210,6 +198,30 @@
   </si>
   <si>
     <t>Left Motor ENA</t>
+  </si>
+  <si>
+    <t>US Left Front Echo</t>
+  </si>
+  <si>
+    <t>US Right Front Echo</t>
+  </si>
+  <si>
+    <t>US Left Front Trigger</t>
+  </si>
+  <si>
+    <t>US Right Front Trigger</t>
+  </si>
+  <si>
+    <t>US Right Back Echo</t>
+  </si>
+  <si>
+    <t>US Right Back Trigger</t>
+  </si>
+  <si>
+    <t>US Left Back Echo</t>
+  </si>
+  <si>
+    <t>US Left Back Trigger</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>72157</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>65249</xdr:rowOff>
+      <xdr:rowOff>72869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -442,9 +454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>159774</xdr:colOff>
+      <xdr:colOff>155964</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>147805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,9 +497,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>740751</xdr:colOff>
+      <xdr:colOff>757896</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>141719</xdr:rowOff>
+      <xdr:rowOff>149339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,9 +541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6603</xdr:colOff>
+      <xdr:colOff>4698</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:rowOff>41013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -565,10 +577,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED68F266-D7F2-40F4-B71A-211722391F5C}">
   <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -976,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -990,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1003,25 +1011,33 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -1050,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -1064,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -1080,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -1120,34 +1136,34 @@
         <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1168,7 +1184,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
